--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
@@ -549,10 +549,10 @@
         <v>0.558189</v>
       </c>
       <c r="I2">
-        <v>0.09191909511096709</v>
+        <v>0.1001513154359418</v>
       </c>
       <c r="J2">
-        <v>0.1312230501990953</v>
+        <v>0.117124939437743</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2521135</v>
+        <v>0.550501</v>
       </c>
       <c r="N2">
-        <v>0.504227</v>
+        <v>1.101002</v>
       </c>
       <c r="O2">
-        <v>0.05590272485875765</v>
+        <v>0.2113997982137229</v>
       </c>
       <c r="P2">
-        <v>0.04055255323846109</v>
+        <v>0.1654784354636026</v>
       </c>
       <c r="Q2">
-        <v>0.0469089941505</v>
+        <v>0.102427867563</v>
       </c>
       <c r="R2">
-        <v>0.281453964903</v>
+        <v>0.614567205378</v>
       </c>
       <c r="S2">
-        <v>0.005138527883254368</v>
+        <v>0.02117196787399701</v>
       </c>
       <c r="T2">
-        <v>0.005321429729312065</v>
+        <v>0.01938165173192692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.558189</v>
       </c>
       <c r="I3">
-        <v>0.09191909511096709</v>
+        <v>0.1001513154359418</v>
       </c>
       <c r="J3">
-        <v>0.1312230501990953</v>
+        <v>0.117124939437743</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>1.624813</v>
       </c>
       <c r="O3">
-        <v>0.1200933628252521</v>
+        <v>0.2079833583923455</v>
       </c>
       <c r="P3">
-        <v>0.1306758973340255</v>
+        <v>0.2442061986816758</v>
       </c>
       <c r="Q3">
         <v>0.100772527073</v>
@@ -641,10 +641,10 @@
         <v>0.9069527436570001</v>
       </c>
       <c r="S3">
-        <v>0.01103887323973023</v>
+        <v>0.02082980693177832</v>
       </c>
       <c r="T3">
-        <v>0.01714768983567466</v>
+        <v>0.02860263623091273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>0.558189</v>
       </c>
       <c r="I4">
-        <v>0.09191909511096709</v>
+        <v>0.1001513154359418</v>
       </c>
       <c r="J4">
-        <v>0.1312230501990953</v>
+        <v>0.117124939437743</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.132338333333333</v>
+        <v>0.327139</v>
       </c>
       <c r="N4">
-        <v>3.397015</v>
+        <v>0.981417</v>
       </c>
       <c r="O4">
-        <v>0.2510805581428902</v>
+        <v>0.1256257819474244</v>
       </c>
       <c r="P4">
-        <v>0.2732055832776724</v>
+        <v>0.147505045129239</v>
       </c>
       <c r="Q4">
-        <v>0.210686267315</v>
+        <v>0.060868463757</v>
       </c>
       <c r="R4">
-        <v>1.896176405835</v>
+        <v>0.5478161738130001</v>
       </c>
       <c r="S4">
-        <v>0.02307909770445102</v>
+        <v>0.01258158731470334</v>
       </c>
       <c r="T4">
-        <v>0.03585086996911911</v>
+        <v>0.01727651947752368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.558189</v>
       </c>
       <c r="I5">
-        <v>0.09191909511096709</v>
+        <v>0.1001513154359418</v>
       </c>
       <c r="J5">
-        <v>0.1312230501990953</v>
+        <v>0.117124939437743</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8435535000000001</v>
+        <v>0.6082780000000001</v>
       </c>
       <c r="N5">
-        <v>1.687107</v>
+        <v>1.216556</v>
       </c>
       <c r="O5">
-        <v>0.1870464660327274</v>
+        <v>0.2335869443613126</v>
       </c>
       <c r="P5">
-        <v>0.1356859042385282</v>
+        <v>0.1828459744249861</v>
       </c>
       <c r="Q5">
-        <v>0.1569540948705</v>
+        <v>0.113178029514</v>
       </c>
       <c r="R5">
-        <v>0.9417245692230002</v>
+        <v>0.6790681770840001</v>
       </c>
       <c r="S5">
-        <v>0.01719314190143255</v>
+        <v>0.0233940397464476</v>
       </c>
       <c r="T5">
-        <v>0.01780511822320203</v>
+        <v>0.02141582368096161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.558189</v>
       </c>
       <c r="I6">
-        <v>0.09191909511096709</v>
+        <v>0.1001513154359418</v>
       </c>
       <c r="J6">
-        <v>0.1312230501990953</v>
+        <v>0.117124939437743</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.30565</v>
+        <v>0.4011773333333333</v>
       </c>
       <c r="N6">
-        <v>0.9169499999999999</v>
+        <v>1.203532</v>
       </c>
       <c r="O6">
-        <v>0.06777371244728772</v>
+        <v>0.1540574991046086</v>
       </c>
       <c r="P6">
-        <v>0.07374587971688723</v>
+        <v>0.1808884928368709</v>
       </c>
       <c r="Q6">
-        <v>0.05687015595</v>
+        <v>0.074644258172</v>
       </c>
       <c r="R6">
-        <v>0.51183140355</v>
+        <v>0.6717983235480001</v>
       </c>
       <c r="S6">
-        <v>0.006229698320465574</v>
+        <v>0.01542906118809797</v>
       </c>
       <c r="T6">
-        <v>0.009677159276065538</v>
+        <v>0.02118655376850312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>0.558189</v>
       </c>
       <c r="I7">
-        <v>0.09191909511096709</v>
+        <v>0.1001513154359418</v>
       </c>
       <c r="J7">
-        <v>0.1312230501990953</v>
+        <v>0.117124939437743</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.434601</v>
+        <v>0.1753756666666667</v>
       </c>
       <c r="N7">
-        <v>4.303803</v>
+        <v>0.526127</v>
       </c>
       <c r="O7">
-        <v>0.318103175693085</v>
+        <v>0.0673466179805858</v>
       </c>
       <c r="P7">
-        <v>0.3461341821944255</v>
+        <v>0.07907585346362569</v>
       </c>
       <c r="Q7">
-        <v>0.266926165863</v>
+        <v>0.032630922667</v>
       </c>
       <c r="R7">
-        <v>2.402335492767</v>
+        <v>0.293678304003</v>
       </c>
       <c r="S7">
-        <v>0.02923975606163335</v>
+        <v>0.006744852380917517</v>
       </c>
       <c r="T7">
-        <v>0.04542078316572189</v>
+        <v>0.009261754547915004</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.81887</v>
+        <v>0.8076995</v>
       </c>
       <c r="H8">
-        <v>3.63774</v>
+        <v>1.615399</v>
       </c>
       <c r="I8">
-        <v>0.8985606193842124</v>
+        <v>0.4347568694579387</v>
       </c>
       <c r="J8">
-        <v>0.8551858575343779</v>
+        <v>0.338959581867057</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2521135</v>
+        <v>0.550501</v>
       </c>
       <c r="N8">
-        <v>0.504227</v>
+        <v>1.101002</v>
       </c>
       <c r="O8">
-        <v>0.05590272485875765</v>
+        <v>0.2113997982137229</v>
       </c>
       <c r="P8">
-        <v>0.04055255323846109</v>
+        <v>0.1654784354636026</v>
       </c>
       <c r="Q8">
-        <v>0.458561681745</v>
+        <v>0.4446393824495</v>
       </c>
       <c r="R8">
-        <v>1.83424672698</v>
+        <v>1.778557529798</v>
       </c>
       <c r="S8">
-        <v>0.05023198707435048</v>
+        <v>0.09190751447543812</v>
       </c>
       <c r="T8">
-        <v>0.03467997001644186</v>
+        <v>0.0560905012927575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.81887</v>
+        <v>0.8076995</v>
       </c>
       <c r="H9">
-        <v>3.63774</v>
+        <v>1.615399</v>
       </c>
       <c r="I9">
-        <v>0.8985606193842124</v>
+        <v>0.4347568694579387</v>
       </c>
       <c r="J9">
-        <v>0.8551858575343779</v>
+        <v>0.338959581867057</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.624813</v>
       </c>
       <c r="O9">
-        <v>0.1200933628252521</v>
+        <v>0.2079833583923455</v>
       </c>
       <c r="P9">
-        <v>0.1306758973340255</v>
+        <v>0.2442061986816758</v>
       </c>
       <c r="Q9">
-        <v>0.98510787377</v>
+        <v>0.4374535492311667</v>
       </c>
       <c r="R9">
-        <v>5.910647242620001</v>
+        <v>2.624721295387</v>
       </c>
       <c r="S9">
-        <v>0.1079111664841915</v>
+        <v>0.09042219379400464</v>
       </c>
       <c r="T9">
-        <v>0.1117521793206729</v>
+        <v>0.08277603099448429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.81887</v>
+        <v>0.8076995</v>
       </c>
       <c r="H10">
-        <v>3.63774</v>
+        <v>1.615399</v>
       </c>
       <c r="I10">
-        <v>0.8985606193842124</v>
+        <v>0.4347568694579387</v>
       </c>
       <c r="J10">
-        <v>0.8551858575343779</v>
+        <v>0.338959581867057</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.132338333333333</v>
+        <v>0.327139</v>
       </c>
       <c r="N10">
-        <v>3.397015</v>
+        <v>0.981417</v>
       </c>
       <c r="O10">
-        <v>0.2510805581428902</v>
+        <v>0.1256257819474244</v>
       </c>
       <c r="P10">
-        <v>0.2732055832776724</v>
+        <v>0.147505045129239</v>
       </c>
       <c r="Q10">
-        <v>2.05957622435</v>
+        <v>0.2642300067305</v>
       </c>
       <c r="R10">
-        <v>12.3574573461</v>
+        <v>1.585380040383</v>
       </c>
       <c r="S10">
-        <v>0.2256111018402091</v>
+        <v>0.05461667168266787</v>
       </c>
       <c r="T10">
-        <v>0.2336415510184961</v>
+        <v>0.04999824842028824</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.81887</v>
+        <v>0.8076995</v>
       </c>
       <c r="H11">
-        <v>3.63774</v>
+        <v>1.615399</v>
       </c>
       <c r="I11">
-        <v>0.8985606193842124</v>
+        <v>0.4347568694579387</v>
       </c>
       <c r="J11">
-        <v>0.8551858575343779</v>
+        <v>0.338959581867057</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8435535000000001</v>
+        <v>0.6082780000000001</v>
       </c>
       <c r="N11">
-        <v>1.687107</v>
+        <v>1.216556</v>
       </c>
       <c r="O11">
-        <v>0.1870464660327274</v>
+        <v>0.2335869443613126</v>
       </c>
       <c r="P11">
-        <v>0.1356859042385282</v>
+        <v>0.1828459744249861</v>
       </c>
       <c r="Q11">
-        <v>1.534314154545</v>
+        <v>0.4913058364610001</v>
       </c>
       <c r="R11">
-        <v>6.13725661818</v>
+        <v>1.965223345844</v>
       </c>
       <c r="S11">
-        <v>0.1680725883719956</v>
+        <v>0.10155352867677</v>
       </c>
       <c r="T11">
-        <v>0.1160366663715533</v>
+        <v>0.06197739503716788</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.81887</v>
+        <v>0.8076995</v>
       </c>
       <c r="H12">
-        <v>3.63774</v>
+        <v>1.615399</v>
       </c>
       <c r="I12">
-        <v>0.8985606193842124</v>
+        <v>0.4347568694579387</v>
       </c>
       <c r="J12">
-        <v>0.8551858575343779</v>
+        <v>0.338959581867057</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.30565</v>
+        <v>0.4011773333333333</v>
       </c>
       <c r="N12">
-        <v>0.9169499999999999</v>
+        <v>1.203532</v>
       </c>
       <c r="O12">
-        <v>0.06777371244728772</v>
+        <v>0.1540574991046086</v>
       </c>
       <c r="P12">
-        <v>0.07374587971688723</v>
+        <v>0.1808884928368709</v>
       </c>
       <c r="Q12">
-        <v>0.5559376155</v>
+        <v>0.3240307315446667</v>
       </c>
       <c r="R12">
-        <v>3.335625693</v>
+        <v>1.944184389268</v>
       </c>
       <c r="S12">
-        <v>0.06089878903460236</v>
+        <v>0.0669775560272388</v>
       </c>
       <c r="T12">
-        <v>0.0630664333853133</v>
+        <v>0.06131388789654789</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.81887</v>
+        <v>0.8076995</v>
       </c>
       <c r="H13">
-        <v>3.63774</v>
+        <v>1.615399</v>
       </c>
       <c r="I13">
-        <v>0.8985606193842124</v>
+        <v>0.4347568694579387</v>
       </c>
       <c r="J13">
-        <v>0.8551858575343779</v>
+        <v>0.338959581867057</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.434601</v>
+        <v>0.1753756666666667</v>
       </c>
       <c r="N13">
-        <v>4.303803</v>
+        <v>0.526127</v>
       </c>
       <c r="O13">
-        <v>0.318103175693085</v>
+        <v>0.0673466179805858</v>
       </c>
       <c r="P13">
-        <v>0.3461341821944255</v>
+        <v>0.07907585346362569</v>
       </c>
       <c r="Q13">
-        <v>2.60935272087</v>
+        <v>0.1416508382788333</v>
       </c>
       <c r="R13">
-        <v>15.65611632522</v>
+        <v>0.8499050296730001</v>
       </c>
       <c r="S13">
-        <v>0.2858349865788634</v>
+        <v>0.02927940480181921</v>
       </c>
       <c r="T13">
-        <v>0.2960090574219004</v>
+        <v>0.02680351822581124</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.019271</v>
+        <v>0.8640563333333334</v>
       </c>
       <c r="H14">
-        <v>0.057813</v>
+        <v>2.592169</v>
       </c>
       <c r="I14">
-        <v>0.009520285504820663</v>
+        <v>0.4650918151061195</v>
       </c>
       <c r="J14">
-        <v>0.01359109226652674</v>
+        <v>0.5439154786951998</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2521135</v>
+        <v>0.550501</v>
       </c>
       <c r="N14">
-        <v>0.504227</v>
+        <v>1.101002</v>
       </c>
       <c r="O14">
-        <v>0.05590272485875765</v>
+        <v>0.2113997982137229</v>
       </c>
       <c r="P14">
-        <v>0.04055255323846109</v>
+        <v>0.1654784354636026</v>
       </c>
       <c r="Q14">
-        <v>0.0048584792585</v>
+        <v>0.4756638755563334</v>
       </c>
       <c r="R14">
-        <v>0.029150875551</v>
+        <v>2.853983253338</v>
       </c>
       <c r="S14">
-        <v>0.0005322099011528081</v>
+        <v>0.0983203158642878</v>
       </c>
       <c r="T14">
-        <v>0.0005511534927071625</v>
+        <v>0.09000628243891812</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.019271</v>
+        <v>0.8640563333333334</v>
       </c>
       <c r="H15">
-        <v>0.057813</v>
+        <v>2.592169</v>
       </c>
       <c r="I15">
-        <v>0.009520285504820663</v>
+        <v>0.4650918151061195</v>
       </c>
       <c r="J15">
-        <v>0.01359109226652674</v>
+        <v>0.5439154786951998</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.624813</v>
       </c>
       <c r="O15">
-        <v>0.1200933628252521</v>
+        <v>0.2079833583923455</v>
       </c>
       <c r="P15">
-        <v>0.1306758973340255</v>
+        <v>0.2442061986816758</v>
       </c>
       <c r="Q15">
-        <v>0.01043725710766667</v>
+        <v>0.4679766543774445</v>
       </c>
       <c r="R15">
-        <v>0.093935313969</v>
+        <v>4.211789889397</v>
       </c>
       <c r="S15">
-        <v>0.001143323101330416</v>
+        <v>0.09673135766656256</v>
       </c>
       <c r="T15">
-        <v>0.001776028177677917</v>
+        <v>0.1328275314562788</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.019271</v>
+        <v>0.8640563333333334</v>
       </c>
       <c r="H16">
-        <v>0.057813</v>
+        <v>2.592169</v>
       </c>
       <c r="I16">
-        <v>0.009520285504820663</v>
+        <v>0.4650918151061195</v>
       </c>
       <c r="J16">
-        <v>0.01359109226652674</v>
+        <v>0.5439154786951998</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.132338333333333</v>
+        <v>0.327139</v>
       </c>
       <c r="N16">
-        <v>3.397015</v>
+        <v>0.981417</v>
       </c>
       <c r="O16">
-        <v>0.2510805581428902</v>
+        <v>0.1256257819474244</v>
       </c>
       <c r="P16">
-        <v>0.2732055832776724</v>
+        <v>0.147505045129239</v>
       </c>
       <c r="Q16">
-        <v>0.02182129202166666</v>
+        <v>0.2826665248303334</v>
       </c>
       <c r="R16">
-        <v>0.196391628195</v>
+        <v>2.543998723473</v>
       </c>
       <c r="S16">
-        <v>0.002390358598230039</v>
+        <v>0.05842752295005321</v>
       </c>
       <c r="T16">
-        <v>0.003713162290057101</v>
+        <v>0.0802302772314271</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.019271</v>
+        <v>0.8640563333333334</v>
       </c>
       <c r="H17">
-        <v>0.057813</v>
+        <v>2.592169</v>
       </c>
       <c r="I17">
-        <v>0.009520285504820663</v>
+        <v>0.4650918151061195</v>
       </c>
       <c r="J17">
-        <v>0.01359109226652674</v>
+        <v>0.5439154786951998</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8435535000000001</v>
+        <v>0.6082780000000001</v>
       </c>
       <c r="N17">
-        <v>1.687107</v>
+        <v>1.216556</v>
       </c>
       <c r="O17">
-        <v>0.1870464660327274</v>
+        <v>0.2335869443613126</v>
       </c>
       <c r="P17">
-        <v>0.1356859042385282</v>
+        <v>0.1828459744249861</v>
       </c>
       <c r="Q17">
-        <v>0.0162561194985</v>
+        <v>0.5255864583273335</v>
       </c>
       <c r="R17">
-        <v>0.097536716991</v>
+        <v>3.153518749964001</v>
       </c>
       <c r="S17">
-        <v>0.001780735759299305</v>
+        <v>0.108639375938095</v>
       </c>
       <c r="T17">
-        <v>0.001844119643772949</v>
+        <v>0.09945275570685656</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.019271</v>
+        <v>0.8640563333333334</v>
       </c>
       <c r="H18">
-        <v>0.057813</v>
+        <v>2.592169</v>
       </c>
       <c r="I18">
-        <v>0.009520285504820663</v>
+        <v>0.4650918151061195</v>
       </c>
       <c r="J18">
-        <v>0.01359109226652674</v>
+        <v>0.5439154786951998</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.30565</v>
+        <v>0.4011773333333333</v>
       </c>
       <c r="N18">
-        <v>0.9169499999999999</v>
+        <v>1.203532</v>
       </c>
       <c r="O18">
-        <v>0.06777371244728772</v>
+        <v>0.1540574991046086</v>
       </c>
       <c r="P18">
-        <v>0.07374587971688723</v>
+        <v>0.1808884928368709</v>
       </c>
       <c r="Q18">
-        <v>0.00589018115</v>
+        <v>0.3466398156564445</v>
       </c>
       <c r="R18">
-        <v>0.05301163034999999</v>
+        <v>3.119758340908001</v>
       </c>
       <c r="S18">
-        <v>0.000645225092219797</v>
+        <v>0.07165088188927178</v>
       </c>
       <c r="T18">
-        <v>0.001002287055508397</v>
+        <v>0.09838805117181985</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.019271</v>
+        <v>0.8640563333333334</v>
       </c>
       <c r="H19">
-        <v>0.057813</v>
+        <v>2.592169</v>
       </c>
       <c r="I19">
-        <v>0.009520285504820663</v>
+        <v>0.4650918151061195</v>
       </c>
       <c r="J19">
-        <v>0.01359109226652674</v>
+        <v>0.5439154786951998</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.434601</v>
+        <v>0.1753756666666667</v>
       </c>
       <c r="N19">
-        <v>4.303803</v>
+        <v>0.526127</v>
       </c>
       <c r="O19">
-        <v>0.318103175693085</v>
+        <v>0.0673466179805858</v>
       </c>
       <c r="P19">
-        <v>0.3461341821944255</v>
+        <v>0.07907585346362569</v>
       </c>
       <c r="Q19">
-        <v>0.027646195871</v>
+        <v>0.1515344554958889</v>
       </c>
       <c r="R19">
-        <v>0.248815762839</v>
+        <v>1.363810099463</v>
       </c>
       <c r="S19">
-        <v>0.003028433052588298</v>
+        <v>0.03132236079784908</v>
       </c>
       <c r="T19">
-        <v>0.004704341606803214</v>
+        <v>0.04301058068989945</v>
       </c>
     </row>
   </sheetData>
